--- a/biology/Médecine/Musée_de_la_pharmacie_de_Université_de_Bâle/Musée_de_la_pharmacie_de_Université_de_Bâle.xlsx
+++ b/biology/Médecine/Musée_de_la_pharmacie_de_Université_de_Bâle/Musée_de_la_pharmacie_de_Université_de_Bâle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_la_pharmacie_de_Universit%C3%A9_de_B%C3%A2le</t>
+          <t>Musée_de_la_pharmacie_de_Université_de_Bâle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Musée de la pharmacie de l'université de Bâle (Pharmaziemuseum der Universität Basel; ci-devant Pharmazie-Historisches Museum der Universität Basel, initialement Sammlung für das historische Apothekenwesen) montre dans l'exposition permanente l'histoire des médicaments et de leur production. Il a été fondé en 1924 par Josef Anton Häfliger (1873–1954) comme une collection universitaire d'études et de pièces justificatives. Jusqu'à ce jour, il a été conservé dans sa forme originelle de cabinet scientifique.
 En matière de l'histoire de la pharmacie, le musée contient une des plus grandes et remarquables collections du monde. On y trouve de la faïence, des mobiliers entiers de vieilles pharmacies, un laboratoire de recherche alchimique, des mortiers, des trousses de pharmacie, des livres, des médicaments anciens et toutes sortes d'ustensiles de production pharmaceutique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_la_pharmacie_de_Universit%C3%A9_de_B%C3%A2le</t>
+          <t>Musée_de_la_pharmacie_de_Université_de_Bâle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au cœur de la vieille ville de Bâle, à mi-chemin entre la Marktplatz (place du marché) et la Peterskirche (église Saint-Pierre), est située la maison « Zum Vorderen Sessel ». Mentionnée déjà en 1316 comme lieu des bains publics « Unter Krämern », la maison a été le lieu d'une histoire très variée. À partir de 1480, l'imprimeur Johannes Amerbach, ancêtre d'une célèbre famille de savants, y a habité. En 1507, la maison a été reprise par Johannes Frobenius, le plus célèbre imprimeur de cette époque. Erasmus von Rotterdam a été l'hôte de Froben à la maison « Zum Vorderen Sessel » de 1514 à 1516 où il a trouvé un lieu accueillant pour travailler et vivre.
 Les imprimeurs ont été rejoints par de célèbres illustrateurs, dont Hans Holbein le Jeune, son frère Ambrosius et le graveur Urs Graf der Ältere. En 1526 et 1527, le nouveau médecin de famille de Froben a pratiqué en ce lieu : Theophrastus von Hohenheim, tantôt arrivé à Bâle et déjà célèbre, nommé par lui-même Paracelsus.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_la_pharmacie_de_Universit%C3%A9_de_B%C3%A2le</t>
+          <t>Musée_de_la_pharmacie_de_Université_de_Bâle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Fondateur et conservateurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1924 : Josef Anton Häfliger (Fondateur)
 1942–1972 : Alfons Lutz
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_la_pharmacie_de_Universit%C3%A9_de_B%C3%A2le</t>
+          <t>Musée_de_la_pharmacie_de_Université_de_Bâle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Collection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée vient d'une époque où des collections d'objets matériels étaient toujours un élément central de l'enseignement et de la recherche scientifique. Il a son origine dans la collection privée de Josef Anton Häfliger (1873-1954), pharmacien et lecteur de pharmacie pratique et d'histoire de la pharmacie. En 1924 il a donné sa collection de vieux récipients de pharmacie, médicaments obsolètes, prescriptions, gravures, tableaux et livres à l'université. Heinrich Zörnig, directeur du département de pharmacie fondé en 1917, mit à disposition plusieurs salles d'exposition. En mettant la collection dans l'établissement du département de pharmacie, Häfliger pouvait initier ses étudiants à la pharmacie pratique au travers des cheminements historiques. Les objets servaient comme matériel scolaire pour l'enseignement de l'histoire de la pharmacie et des technologies de fabrication des médicaments. La collection a surgi en connexion avec les développements historiques dans la pratique pharmaceutique, car dans la première moitié du 20e siècle toute la pharmacie - de la recherche à la fabrication jusqu'à la vente des médicaments - était l'objet d'une profonde transformation.
 </t>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_la_pharmacie_de_Universit%C3%A9_de_B%C3%A2le</t>
+          <t>Musée_de_la_pharmacie_de_Université_de_Bâle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,14 +630,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Médicaments
-Une vaste collection des médicaments du monde entier, qui étaient en usage anciennement, concrétise des conceptions différentes des maladies au fil du temps.
-Laboratoires
-Parmi les deux laboratoires historiques de l'exposition, le laboratoire de recherche alchimique avec des pièces d'exposition originales des 16e et 17e siècles atteste la recherche de la pierre philosophale. Dans le laboratoire de l'époque aux environs de 1800, on peut voir des ustensiles pour la préparation des plantes médicinales.
-Officines
-Trois ameublements des officines retracent le changement d'heure : la pharmacie de cour d'Innsbruck, abondamment décorée, date des environs de 1755. La pharmacie datant de 1820 se présente en style et manière classique de l'empire. Et l'entrée dans l'ère industrielle est représentée par l'ameublement de l'ancienne «Barfüsser-Apotheke» à la veille du 20e siècle. Aujourd'hui c'est l'entrée et la boutique du musée.
-Faïence
-Le musée montre une collection renommée de céramiques pharmaceutiques. Dès le 15e siècle, la faïence a été utilisée pour la conservation des matériaux et médicaments dans les pharmacies.
+          <t>Médicaments</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une vaste collection des médicaments du monde entier, qui étaient en usage anciennement, concrétise des conceptions différentes des maladies au fil du temps.
 </t>
         </is>
       </c>
@@ -630,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_la_pharmacie_de_Universit%C3%A9_de_B%C3%A2le</t>
+          <t>Musée_de_la_pharmacie_de_Université_de_Bâle</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,12 +662,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Recherche</t>
+          <t>Exposition</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">En étant un des deux musées universitaires de Bâle, le musée de la pharmacie s'oblige de participer activement à la recherche et l'enseignement scientifique. Il y a des cours réguliers sur l'histoire de la pharmacie, l'histoire des sciences naturelles et des sciences de la vie. En outre, le musée de la pharmacie cultive l'exploration scientifique de l'histoire de la pharmacie et de la recherche liée à l'objet et à la collection.
+          <t>Laboratoires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les deux laboratoires historiques de l'exposition, le laboratoire de recherche alchimique avec des pièces d'exposition originales des 16e et 17e siècles atteste la recherche de la pierre philosophale. Dans le laboratoire de l'époque aux environs de 1800, on peut voir des ustensiles pour la préparation des plantes médicinales.
 </t>
         </is>
       </c>
@@ -661,7 +684,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_la_pharmacie_de_Universit%C3%A9_de_B%C3%A2le</t>
+          <t>Musée_de_la_pharmacie_de_Université_de_Bâle</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -676,12 +699,18 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bibliothèque</t>
+          <t>Exposition</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le musée contient une bibliothèque scientifique où on peut trouver de la littérature et des informations sur la pharmacie, ses sciences connexes et leur histoire. En outre, il y a des informations qui originellement n'étaient pas objet d'archivage (compendia des médicaments, brochures publicitaires, tableaux des prix, etc.). La bibliothèque est une bibliothèque de référence, dont il n'est pas possible d'emprunter les livres. L'utilisation de la bibliothèque est gratuite. Parmi le catalogue du réseau des bibliothèques (Bibliotheksverbund) on peut consulter l'inventaire : / Swissbib Katalog.
+          <t>Officines</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trois ameublements des officines retracent le changement d'heure : la pharmacie de cour d'Innsbruck, abondamment décorée, date des environs de 1755. La pharmacie datant de 1820 se présente en style et manière classique de l'empire. Et l'entrée dans l'ère industrielle est représentée par l'ameublement de l'ancienne «Barfüsser-Apotheke» à la veille du 20e siècle. Aujourd'hui c'est l'entrée et la boutique du musée.
 </t>
         </is>
       </c>
@@ -692,7 +721,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_la_pharmacie_de_Universit%C3%A9_de_B%C3%A2le</t>
+          <t>Musée_de_la_pharmacie_de_Université_de_Bâle</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -707,12 +736,18 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Boutique du musée</t>
+          <t>Exposition</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aujourd'hui, dans l'ameublement de la vieille « Barfüsser-Apotheke », on trouve la boutique du musée. Elle l'offre des créations de tisane, des herbes, des sucreries, des vaisseaux pharmaceutiques, des savons, des cadeaux, des souvenirs et des publications du musée. L'entrée à la boutique du musée est gratuite.
+          <t>Faïence</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée montre une collection renommée de céramiques pharmaceutiques. Dès le 15e siècle, la faïence a été utilisée pour la conservation des matériaux et médicaments dans les pharmacies.
 </t>
         </is>
       </c>
@@ -723,7 +758,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_la_pharmacie_de_Universit%C3%A9_de_B%C3%A2le</t>
+          <t>Musée_de_la_pharmacie_de_Université_de_Bâle</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -738,10 +773,111 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Recherche</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En étant un des deux musées universitaires de Bâle, le musée de la pharmacie s'oblige de participer activement à la recherche et l'enseignement scientifique. Il y a des cours réguliers sur l'histoire de la pharmacie, l'histoire des sciences naturelles et des sciences de la vie. En outre, le musée de la pharmacie cultive l'exploration scientifique de l'histoire de la pharmacie et de la recherche liée à l'objet et à la collection.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Musée_de_la_pharmacie_de_Université_de_Bâle</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9e_de_la_pharmacie_de_Universit%C3%A9_de_B%C3%A2le</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Bibliothèque</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée contient une bibliothèque scientifique où on peut trouver de la littérature et des informations sur la pharmacie, ses sciences connexes et leur histoire. En outre, il y a des informations qui originellement n'étaient pas objet d'archivage (compendia des médicaments, brochures publicitaires, tableaux des prix, etc.). La bibliothèque est une bibliothèque de référence, dont il n'est pas possible d'emprunter les livres. L'utilisation de la bibliothèque est gratuite. Parmi le catalogue du réseau des bibliothèques (Bibliotheksverbund) on peut consulter l'inventaire : / Swissbib Katalog.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Musée_de_la_pharmacie_de_Université_de_Bâle</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9e_de_la_pharmacie_de_Universit%C3%A9_de_B%C3%A2le</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Boutique du musée</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aujourd'hui, dans l'ameublement de la vieille « Barfüsser-Apotheke », on trouve la boutique du musée. Elle l'offre des créations de tisane, des herbes, des sucreries, des vaisseaux pharmaceutiques, des savons, des cadeaux, des souvenirs et des publications du musée. L'entrée à la boutique du musée est gratuite.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Musée_de_la_pharmacie_de_Université_de_Bâle</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9e_de_la_pharmacie_de_Universit%C3%A9_de_B%C3%A2le</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Heures d'ouverture, billets d'entrée et visites guidées</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée est ouvert du mardi au dimanche, de 10 h 00 à 17 h 00. Le lundi et les jours fériés le musée reste fermé.
 Le billet d'entrée autorise le visiteur à rendre visite aussi au Musée anatomique de l'université de Bâle (le billet est valable le même jour ou le prochain jour d'ouverture). Pour les collaborateurs et étudiants de l'université de Bâle, l'entrée est libre dans les deux musées.
@@ -750,31 +886,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Mus%C3%A9e_de_la_pharmacie_de_Universit%C3%A9_de_B%C3%A2le</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9e_de_la_pharmacie_de_Universit%C3%A9_de_B%C3%A2le</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Musée_de_la_pharmacie_de_Université_de_Bâle</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9e_de_la_pharmacie_de_Universit%C3%A9_de_B%C3%A2le</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Littérature (en allemand)</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Häfliger, Josef Anton: Pharmazeutische Altertumskunde und die Schweizerische Sammlung für historisches Apothekenwesen an der Universität Basel. Zurich 1931.
 Häfliger, Josef Anton: Das Apothekenwesen Basels. Bâle 1938.
@@ -790,31 +928,33 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Mus%C3%A9e_de_la_pharmacie_de_Universit%C3%A9_de_B%C3%A2le</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9e_de_la_pharmacie_de_Universit%C3%A9_de_B%C3%A2le</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Musée_de_la_pharmacie_de_Université_de_Bâle</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9e_de_la_pharmacie_de_Universit%C3%A9_de_B%C3%A2le</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Publications en auto-édition du musée (en allemand)</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Kluge, Martin: Drachen in der Medizin. Reale Arznei aus irrealen Wesen. Catalogue d'exposition; Bâle 2005.
 Häner, Flavio, und Kessler, Michael: Lust, Leid und Wissen. Eine Geschichte der Syphilis und ihrer Therapie. Catalogue d'exposition; Bâle 2008.
